--- a/test/testMovement/movementPerformance.xlsx
+++ b/test/testMovement/movementPerformance.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="108">
   <si>
     <t>RData</t>
   </si>
@@ -63,27 +63,15 @@
     <t>10</t>
   </si>
   <si>
-    <t>10.8899999999849</t>
-  </si>
-  <si>
     <t>40</t>
   </si>
   <si>
-    <t>40.9799999999814</t>
-  </si>
-  <si>
     <t>90</t>
   </si>
   <si>
-    <t>90.8500000000058</t>
-  </si>
-  <si>
     <t>160</t>
   </si>
   <si>
-    <t>160.889999999985</t>
-  </si>
-  <si>
     <t>250</t>
   </si>
   <si>
@@ -118,6 +106,243 @@
   </si>
   <si>
     <t>250.419999999984</t>
+  </si>
+  <si>
+    <t>10.2600000000002</t>
+  </si>
+  <si>
+    <t>10582.0633886882</t>
+  </si>
+  <si>
+    <t>0.810498649955858</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>10.3400000000001</t>
+  </si>
+  <si>
+    <t>10.5199999999995</t>
+  </si>
+  <si>
+    <t>10.2399999999998</t>
+  </si>
+  <si>
+    <t>10.2299999999996</t>
+  </si>
+  <si>
+    <t>11024.5032077263</t>
+  </si>
+  <si>
+    <t>0.811747159181014</t>
+  </si>
+  <si>
+    <t>40.25</t>
+  </si>
+  <si>
+    <t>90.2700000000004</t>
+  </si>
+  <si>
+    <t>160.27</t>
+  </si>
+  <si>
+    <t>250.46</t>
+  </si>
+  <si>
+    <t>11214.6967912995</t>
+  </si>
+  <si>
+    <t>0.81228385322028</t>
+  </si>
+  <si>
+    <t>10.7800000000007</t>
+  </si>
+  <si>
+    <t>40.7000000000007</t>
+  </si>
+  <si>
+    <t>90.8100000000004</t>
+  </si>
+  <si>
+    <t>160.87</t>
+  </si>
+  <si>
+    <t>dailyCost</t>
+  </si>
+  <si>
+    <t>RLRatio</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>10.53</t>
+  </si>
+  <si>
+    <t>40.47</t>
+  </si>
+  <si>
+    <t>10726.1179182788</t>
+  </si>
+  <si>
+    <t>0.810905146257044</t>
+  </si>
+  <si>
+    <t>90.28</t>
+  </si>
+  <si>
+    <t>160.42</t>
+  </si>
+  <si>
+    <t>11018.6595872387</t>
+  </si>
+  <si>
+    <t>0.811730669920967</t>
+  </si>
+  <si>
+    <t>159.31</t>
+  </si>
+  <si>
+    <t>10.28</t>
+  </si>
+  <si>
+    <t>40.2900000000001</t>
+  </si>
+  <si>
+    <t>90.26</t>
+  </si>
+  <si>
+    <t>160.26</t>
+  </si>
+  <si>
+    <t>250.29</t>
+  </si>
+  <si>
+    <t>10.72</t>
+  </si>
+  <si>
+    <t>40.72</t>
+  </si>
+  <si>
+    <t>90.7</t>
+  </si>
+  <si>
+    <t>160.7</t>
+  </si>
+  <si>
+    <t>250.44</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0.00999999999999091</t>
+  </si>
+  <si>
+    <t>10.75</t>
+  </si>
+  <si>
+    <t>11024.5031548102</t>
+  </si>
+  <si>
+    <t>0.811747160192473</t>
+  </si>
+  <si>
+    <t>40.73</t>
+  </si>
+  <si>
+    <t>90.7900000000002</t>
+  </si>
+  <si>
+    <t>11024.5031720948</t>
+  </si>
+  <si>
+    <t>0.811747159862089</t>
+  </si>
+  <si>
+    <t>160.73</t>
+  </si>
+  <si>
+    <t>250.84</t>
+  </si>
+  <si>
+    <t>10.6100000000006</t>
+  </si>
+  <si>
+    <t>40.2800000000007</t>
+  </si>
+  <si>
+    <t>90.3600000000006</t>
+  </si>
+  <si>
+    <t>160.35</t>
+  </si>
+  <si>
+    <t>250.280000000001</t>
+  </si>
+  <si>
+    <t>10.2199999999993</t>
+  </si>
+  <si>
+    <t>40.2299999999996</t>
+  </si>
+  <si>
+    <t>90.2199999999993</t>
+  </si>
+  <si>
+    <t>160.41</t>
+  </si>
+  <si>
+    <t>180.18</t>
+  </si>
+  <si>
+    <t>10.2799999999988</t>
+  </si>
+  <si>
+    <t>40.3299999999999</t>
+  </si>
+  <si>
+    <t>90.4699999999993</t>
+  </si>
+  <si>
+    <t>160.449999999999</t>
+  </si>
+  <si>
+    <t>250.550000000001</t>
+  </si>
+  <si>
+    <t>10.7099999999991</t>
+  </si>
+  <si>
+    <t>40.75</t>
+  </si>
+  <si>
+    <t>90.7800000000007</t>
+  </si>
+  <si>
+    <t>160.98</t>
+  </si>
+  <si>
+    <t>0.0300000000024738</t>
+  </si>
+  <si>
+    <t>0.0199999999967986</t>
+  </si>
+  <si>
+    <t>11.0200000000004</t>
+  </si>
+  <si>
+    <t>40.9199999999983</t>
+  </si>
+  <si>
+    <t>90.8499999999985</t>
+  </si>
+  <si>
+    <t>160.799999999999</t>
+  </si>
+  <si>
+    <t>250.91</t>
   </si>
 </sst>
 </file>
@@ -183,7 +408,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="542">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
       <alignment wrapText="1"/>
@@ -206,21 +431,6 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
     <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
@@ -453,6 +663,1359 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
@@ -755,283 +2318,1853 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="44.85546875" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="15">
+      <c r="F1" s="178" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="178" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="179" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="10">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="b">
+      <c r="C2" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="17">
+      <c r="D2" s="20"/>
+      <c r="E2" s="12">
         <v>186.85000000000599</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="12">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7">
         <v>2</v>
       </c>
-      <c r="C3" s="12" t="b">
+      <c r="C3" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="12">
-        <v>4</v>
-      </c>
-      <c r="C4" s="13" t="b">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="4">
         <v>3601</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="19" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="21" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row ht="30" r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+    <row ht="30" r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25" t="s">
+      <c r="C6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+    <row ht="30" r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="49" t="s">
+      <c r="C7" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="52" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="54" t="s">
+      <c r="C12" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="56" t="s">
+    </row>
+    <row ht="30" r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row ht="30" r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row ht="30" r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="30" r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="30" r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="70" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row ht="45" r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="60" t="s">
+      <c r="C18" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="77" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row ht="45" r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="64" t="s">
+      <c r="C19" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="84" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row ht="45" r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="66" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="68" t="s">
+      <c r="C20" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row ht="45" r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="70" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="71" t="s">
+      <c r="C21" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="96" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="98" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row ht="45" r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="102" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="104" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="105" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row ht="45" r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="110" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="112" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="113" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row ht="45" r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="114" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="116" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="118" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="119" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="120" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="121" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row ht="45" r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="122" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="125" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="126" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="127" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="128" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="129" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row ht="45" r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="132" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="133" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="134" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="135" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="136" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="137" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row ht="30" r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="138" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="140" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="141" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="142" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="143" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="144" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="145" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row ht="45" r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B28" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="75" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="76" t="s">
+      <c r="C28" s="148" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="149" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="150" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="151" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="152" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="153" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row ht="45" r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B29" s="155" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="79" t="s">
+      <c r="C29" s="156" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="157" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="158" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="159" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="160" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" s="161" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row ht="45" r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="162" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="163" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="164" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="80" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="81" t="s">
+      <c r="E30" s="166" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="167" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="168" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="169" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row ht="45" r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="82" t="s">
+      <c r="B31" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="83" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="84" t="s">
+      <c r="C31" s="172" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="173" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="174" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="175" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="176" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="177" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row ht="45" r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="180" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="182" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32" s="183" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="184" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="185" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="186" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row ht="45" r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="187" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="189" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>40</v>
+      </c>
+      <c r="E33" s="190" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="191" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="192" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="193" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row ht="45" r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="194" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>90</v>
+      </c>
+      <c r="E34" s="197" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="198" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="199" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="200" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row ht="45" r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="201" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="203" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>160</v>
+      </c>
+      <c r="E35" s="204" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="205" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" s="206" t="s">
+        <v>59</v>
+      </c>
+      <c r="H35" s="207" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row ht="45" r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="208" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="210" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>250</v>
+      </c>
+      <c r="E36" s="211" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="212" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="213" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" s="214" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row ht="45" r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="215" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="217" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="218" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="219" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="220" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" s="221" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="222" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row ht="45" r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="223" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="224" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="225" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="226" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="227" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="228" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" s="229" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="230" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row ht="45" r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="231" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="232" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="233" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="234" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="235" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" s="236" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" s="237" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" s="238" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row ht="45" r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="239" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="240" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="241" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="242" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="243" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="244" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40" s="245" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" s="246" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row ht="30" r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="247" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="248" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="249" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="250" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="85" t="s">
+      <c r="E41" s="251" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="252" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" s="253" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" s="254" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row ht="45" r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="255" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="256" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="257" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="258" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="259" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" s="260" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" s="261" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="262" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row ht="45" r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="263" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="264" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="265" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="266" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="267" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" s="268" t="s">
+        <v>37</v>
+      </c>
+      <c r="G43" s="269" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="270" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row ht="45" r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="271" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="272" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="273" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="274" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="275" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" s="276" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" s="277" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" s="278" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row ht="45" r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="279" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="280" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="281" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="282" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="283" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" s="284" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" s="285" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="286" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row ht="30" r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="287" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="288" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="289" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="290" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="291" t="s">
+        <v>70</v>
+      </c>
+      <c r="F46" s="292" t="s">
+        <v>43</v>
+      </c>
+      <c r="G46" s="293" t="s">
+        <v>44</v>
+      </c>
+      <c r="H46" s="294" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row ht="30" r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="295" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="296" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="297" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="298" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row ht="45" r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="299" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="300" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="301" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="333" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="302" t="s">
+        <v>73</v>
+      </c>
+      <c r="F48" s="303" t="s">
+        <v>74</v>
+      </c>
+      <c r="G48" s="304" t="s">
+        <v>75</v>
+      </c>
+      <c r="H48" s="305" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row ht="45" r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="306" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="307" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="308" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="333" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="309" t="s">
+        <v>76</v>
+      </c>
+      <c r="F49" s="310" t="s">
+        <v>74</v>
+      </c>
+      <c r="G49" s="311" t="s">
+        <v>75</v>
+      </c>
+      <c r="H49" s="312" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row ht="45" r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="313" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="314" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="315" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="333" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="316" t="s">
+        <v>77</v>
+      </c>
+      <c r="F50" s="317" t="s">
+        <v>78</v>
+      </c>
+      <c r="G50" s="318" t="s">
+        <v>79</v>
+      </c>
+      <c r="H50" s="319" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row ht="45" r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="320" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="321" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="322" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="333" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="323" t="s">
+        <v>80</v>
+      </c>
+      <c r="F51" s="324" t="s">
+        <v>78</v>
+      </c>
+      <c r="G51" s="325" t="s">
+        <v>79</v>
+      </c>
+      <c r="H51" s="326" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row ht="45" r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="327" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="328" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="329" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="333" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="330" t="s">
+        <v>81</v>
+      </c>
+      <c r="F52" s="331" t="s">
+        <v>78</v>
+      </c>
+      <c r="G52" s="332" t="s">
+        <v>79</v>
+      </c>
+      <c r="H52" s="333" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="334" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="335" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="336" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="337" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="338" t="s">
+        <v>82</v>
+      </c>
+      <c r="F53" s="339" t="s">
+        <v>37</v>
+      </c>
+      <c r="G53" s="340" t="s">
+        <v>38</v>
+      </c>
+      <c r="H53" s="341" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="342" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="343" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="344" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="345" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="346" t="s">
+        <v>83</v>
+      </c>
+      <c r="F54" s="347" t="s">
+        <v>37</v>
+      </c>
+      <c r="G54" s="348" t="s">
+        <v>38</v>
+      </c>
+      <c r="H54" s="349" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="350" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="351" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="352" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="353" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="354" t="s">
+        <v>84</v>
+      </c>
+      <c r="F55" s="355" t="s">
+        <v>37</v>
+      </c>
+      <c r="G55" s="356" t="s">
+        <v>38</v>
+      </c>
+      <c r="H55" s="357" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="358" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="359" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="360" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="361" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="362" t="s">
+        <v>85</v>
+      </c>
+      <c r="F56" s="363" t="s">
+        <v>37</v>
+      </c>
+      <c r="G56" s="364" t="s">
+        <v>38</v>
+      </c>
+      <c r="H56" s="365" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="366" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="367" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="368" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="369" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="370" t="s">
+        <v>86</v>
+      </c>
+      <c r="F57" s="371" t="s">
+        <v>43</v>
+      </c>
+      <c r="G57" s="372" t="s">
+        <v>44</v>
+      </c>
+      <c r="H57" s="373" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="374" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="375" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="376" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="377" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="378" t="s">
+        <v>87</v>
+      </c>
+      <c r="F58" s="379" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="86" t="s">
+      <c r="G58" s="380" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" s="381" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="382" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="383" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="384" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="385" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="386" t="s">
+        <v>88</v>
+      </c>
+      <c r="F59" s="387" t="s">
+        <v>54</v>
+      </c>
+      <c r="G59" s="388" t="s">
+        <v>55</v>
+      </c>
+      <c r="H59" s="389" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="390" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="391" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="392" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="393" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="394" t="s">
+        <v>89</v>
+      </c>
+      <c r="F60" s="395" t="s">
+        <v>54</v>
+      </c>
+      <c r="G60" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="H60" s="397" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="398" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="399" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="400" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="401" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="402" t="s">
+        <v>90</v>
+      </c>
+      <c r="F61" s="403" t="s">
+        <v>58</v>
+      </c>
+      <c r="G61" s="404" t="s">
+        <v>59</v>
+      </c>
+      <c r="H61" s="405" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="406" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="407" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="408" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="409" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="410" t="s">
+        <v>91</v>
+      </c>
+      <c r="F62" s="411" t="s">
+        <v>58</v>
+      </c>
+      <c r="G62" s="412" t="s">
+        <v>59</v>
+      </c>
+      <c r="H62" s="413" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="414" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="415" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="416" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="417" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="418" t="s">
+        <v>92</v>
+      </c>
+      <c r="F63" s="419" t="s">
+        <v>37</v>
+      </c>
+      <c r="G63" s="420" t="s">
+        <v>38</v>
+      </c>
+      <c r="H63" s="421" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="422" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="423" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="424" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="425" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="426" t="s">
+        <v>93</v>
+      </c>
+      <c r="F64" s="427" t="s">
+        <v>37</v>
+      </c>
+      <c r="G64" s="428" t="s">
+        <v>38</v>
+      </c>
+      <c r="H64" s="429" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="430" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="431" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="432" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="433" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="434" t="s">
+        <v>94</v>
+      </c>
+      <c r="F65" s="435" t="s">
+        <v>37</v>
+      </c>
+      <c r="G65" s="436" t="s">
+        <v>38</v>
+      </c>
+      <c r="H65" s="437" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="438" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="439" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="440" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="441" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="442" t="s">
+        <v>95</v>
+      </c>
+      <c r="F66" s="443" t="s">
+        <v>37</v>
+      </c>
+      <c r="G66" s="444" t="s">
+        <v>38</v>
+      </c>
+      <c r="H66" s="445" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="446" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="447" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="448" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="449" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="450" t="s">
+        <v>96</v>
+      </c>
+      <c r="F67" s="451" t="s">
+        <v>43</v>
+      </c>
+      <c r="G67" s="452" t="s">
+        <v>44</v>
+      </c>
+      <c r="H67" s="453" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="454" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="87" t="s">
+      <c r="B68" s="455" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="90" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="91">
+      <c r="C68" s="456" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="457" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="458" t="s">
+        <v>97</v>
+      </c>
+      <c r="F68" s="459" t="s">
+        <v>37</v>
+      </c>
+      <c r="G68" s="460" t="s">
+        <v>38</v>
+      </c>
+      <c r="H68" s="461" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="462" t="s">
         <v>8</v>
       </c>
-      <c r="B17" t="s" s="92">
+      <c r="B69" s="463" t="s">
         <v>9</v>
       </c>
-      <c r="C17" t="s" s="93">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s" s="94">
-        <v>21</v>
-      </c>
-      <c r="E17" t="s" s="95">
+      <c r="C69" s="464" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="465" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="466" t="s">
+        <v>98</v>
+      </c>
+      <c r="F69" s="467" t="s">
+        <v>37</v>
+      </c>
+      <c r="G69" s="468" t="s">
+        <v>38</v>
+      </c>
+      <c r="H69" s="469" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="470" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="471" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="472" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="473" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="474" t="s">
+        <v>99</v>
+      </c>
+      <c r="F70" s="475" t="s">
+        <v>37</v>
+      </c>
+      <c r="G70" s="476" t="s">
+        <v>38</v>
+      </c>
+      <c r="H70" s="477" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="478" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="479" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="480" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="481" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" s="482" t="s">
+        <v>100</v>
+      </c>
+      <c r="F71" s="483" t="s">
+        <v>37</v>
+      </c>
+      <c r="G71" s="484" t="s">
+        <v>38</v>
+      </c>
+      <c r="H71" s="485" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="486" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="487" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="488" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="489" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="490" t="s">
+        <v>23</v>
+      </c>
+      <c r="F72" s="491" t="s">
+        <v>43</v>
+      </c>
+      <c r="G72" s="492" t="s">
+        <v>44</v>
+      </c>
+      <c r="H72" s="493" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="494" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="495" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" s="496" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="497" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="498" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="499" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" s="500" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="501" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="502" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="503" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="504" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="505" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="506" t="s">
+        <v>103</v>
+      </c>
+      <c r="F75" s="507" t="s">
+        <v>74</v>
+      </c>
+      <c r="G75" s="508" t="s">
+        <v>75</v>
+      </c>
+      <c r="H75" s="509" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="510" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="511" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="512" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="513" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="514" t="s">
+        <v>104</v>
+      </c>
+      <c r="F76" s="515" t="s">
+        <v>74</v>
+      </c>
+      <c r="G76" s="516" t="s">
+        <v>75</v>
+      </c>
+      <c r="H76" s="517" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="518" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="519" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="520" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="521" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="522" t="s">
+        <v>105</v>
+      </c>
+      <c r="F77" s="523" t="s">
+        <v>78</v>
+      </c>
+      <c r="G77" s="524" t="s">
+        <v>79</v>
+      </c>
+      <c r="H77" s="525" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="526" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="527" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="528" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="529" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" s="530" t="s">
+        <v>106</v>
+      </c>
+      <c r="F78" s="531" t="s">
+        <v>78</v>
+      </c>
+      <c r="G78" s="532" t="s">
+        <v>79</v>
+      </c>
+      <c r="H78" s="533" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="534">
+        <v>4</v>
+      </c>
+      <c r="B79" t="s" s="535">
+        <v>9</v>
+      </c>
+      <c r="C79" t="s" s="536">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s" s="537">
+        <v>17</v>
+      </c>
+      <c r="E79" t="s" s="538">
+        <v>107</v>
+      </c>
+      <c r="F79" t="s" s="539">
+        <v>78</v>
+      </c>
+      <c r="G79" t="s" s="540">
+        <v>79</v>
+      </c>
+      <c r="H79" t="s" s="541">
         <v>32</v>
       </c>
     </row>

--- a/test/testMovement/movementPerformance.xlsx
+++ b/test/testMovement/movementPerformance.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="21">
   <si>
     <t>RData</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>18</t>
+  </si>
+  <si>
+    <t>callNumber10AssetNumberS20M20L10.Rdata</t>
   </si>
 </sst>
 </file>
@@ -449,12 +452,12 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="43.85546875" style="5" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="17" style="5" customWidth="1" collapsed="1"/>
     <col min="3" max="4" width="10.5703125" style="5" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="9.140625" style="5" collapsed="1"/>
@@ -492,7 +495,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -513,12 +516,12 @@
       <c r="G2" s="1">
         <v>0.81459227602136097</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -544,7 +547,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -570,7 +573,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -596,7 +599,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -622,7 +625,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -648,8 +651,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
+      <c r="A8" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -674,8 +677,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
+      <c r="A9" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -700,8 +703,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
+      <c r="A10" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -726,8 +729,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
+      <c r="A11" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -753,7 +756,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
@@ -779,7 +782,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -805,7 +808,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
@@ -831,7 +834,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
@@ -857,7 +860,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
@@ -882,8 +885,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>4</v>
+      <c r="A17" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
@@ -908,8 +911,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>4</v>
+      <c r="A18" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
@@ -934,8 +937,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>4</v>
+      <c r="A19" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
@@ -960,8 +963,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>4</v>
+      <c r="A20" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>7</v>
@@ -986,8 +989,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>4</v>
+      <c r="A21" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>7</v>
